--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\histori_pegawai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\historipegawai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
   <si>
     <t>Data Pegawai</t>
   </si>
@@ -370,6 +370,15 @@
   </si>
   <si>
     <t>Fingerprint ID :</t>
+  </si>
+  <si>
+    <t>tab 2</t>
+  </si>
+  <si>
+    <t>tab 3</t>
+  </si>
+  <si>
+    <t>200kb</t>
   </si>
 </sst>
 </file>
@@ -487,7 +496,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +530,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -569,7 +584,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
@@ -600,6 +614,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -695,6 +712,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -730,6 +764,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -884,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,36 +1078,36 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
+      <c r="B18" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
+      <c r="B19" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -1107,11 +1158,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -1120,6 +1174,9 @@
       <c r="C27" s="27" t="s">
         <v>41</v>
       </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
@@ -1128,12 +1185,15 @@
       <c r="C28" s="27" t="s">
         <v>41</v>
       </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="26"/>
@@ -1154,7 +1214,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
-      <c r="B32" s="37"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -1176,10 +1236,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
-      <c r="B34" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="35" t="s">
+      <c r="B34" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="26"/>
@@ -1202,10 +1262,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="35" t="s">
+      <c r="B36" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="26"/>
@@ -1228,10 +1288,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
-      <c r="B38" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="35" t="s">
+      <c r="B38" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="26"/>
@@ -1254,10 +1314,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
-      <c r="B40" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="40" t="s">
+      <c r="B40" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="26"/>
@@ -1286,19 +1346,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
-      <c r="B42" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="35" t="s">
+      <c r="B42" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1306,7 +1366,7 @@
       <c r="A43" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="26"/>
@@ -1315,7 +1375,7 @@
       <c r="A44" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="26"/>
@@ -1324,7 +1384,7 @@
       <c r="A45" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="26"/>
@@ -1333,10 +1393,10 @@
       <c r="A46" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="37" t="s">
+      <c r="B46" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="36" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1344,7 +1404,7 @@
       <c r="A47" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="26"/>
@@ -1353,130 +1413,138 @@
       <c r="A48" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="26"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="26"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C50" s="26"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="26"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C54" s="26"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="26"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="26"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="26"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="26"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="26"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C60" s="26"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C61" s="26"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="B62" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
     </row>
